--- a/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5CBF6F-A781-40E4-B0DB-74287B5A2E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF679F8-419A-4C99-9431-895C2EF827AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5422C371-3F5C-462B-9D37-51B0C4B1E877}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85C1E091-D471-4798-A6CE-9C013F1FD303}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
@@ -104,10 +104,10 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
@@ -134,421 +134,421 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2550EEE3-FFC4-4E48-B26F-C907F6FAB159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D979F3-B689-4C78-A6FF-C21C08B29C44}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1568,10 +1568,10 @@
         <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -1580,13 +1580,13 @@
         <v>82821</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1601,13 @@
         <v>93775</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -1616,13 +1616,13 @@
         <v>18322</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -1631,13 +1631,13 @@
         <v>112097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,7 +1693,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1705,13 +1705,13 @@
         <v>639474</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>999</v>
@@ -1720,13 +1720,13 @@
         <v>839970</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1591</v>
@@ -1735,13 +1735,13 @@
         <v>1479444</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1756,13 @@
         <v>43390</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -1771,13 +1771,13 @@
         <v>19873</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -1786,13 +1786,13 @@
         <v>63263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
         <v>44519</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -1822,13 +1822,13 @@
         <v>13331</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -1837,13 +1837,13 @@
         <v>57850</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1899,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1911,13 +1911,13 @@
         <v>849424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>1506</v>
@@ -1926,13 +1926,13 @@
         <v>1112163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>2378</v>
@@ -1941,13 +1941,13 @@
         <v>1961587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1962,13 @@
         <v>33685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -1977,13 +1977,13 @@
         <v>20127</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -1992,13 +1992,13 @@
         <v>53812</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2013,13 @@
         <v>80382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -2028,13 +2028,13 @@
         <v>17341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -2043,13 +2043,13 @@
         <v>97723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>2923723</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>5163</v>
@@ -2132,28 +2132,28 @@
         <v>3674887</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>8039</v>
       </c>
       <c r="N24" s="7">
-        <v>6598611</v>
+        <v>6598612</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>164686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>105</v>
@@ -2183,13 +2183,13 @@
         <v>68346</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -2198,10 +2198,10 @@
         <v>233032</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>162</v>
@@ -2249,7 +2249,7 @@
         <v>350150</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>169</v>
@@ -2297,7 +2297,7 @@
         <v>8725</v>
       </c>
       <c r="N27" s="7">
-        <v>7181793</v>
+        <v>7181794</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF679F8-419A-4C99-9431-895C2EF827AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098B85ED-084B-417E-99D1-120E7EB7920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85C1E091-D471-4798-A6CE-9C013F1FD303}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F52D370-17E5-4322-A509-EEA9F2A467E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
   <si>
     <t>Población según el número de vasos de vino que consumen a la semana en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -65,490 +65,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de tres vasos a la semana</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>De tres a menos de 7 vasos a la semana</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>Siete o más vasos a la semana</t>
   </si>
   <si>
-    <t>8,73%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,8 +891,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D979F3-B689-4C78-A6FF-C21C08B29C44}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99D9333-075A-4811-AE78-6A33AF3B6739}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1081,10 +1009,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>90</v>
+        <v>605</v>
       </c>
       <c r="D4" s="7">
-        <v>82438</v>
+        <v>545008</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1096,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>239</v>
+        <v>1196</v>
       </c>
       <c r="I4" s="7">
-        <v>129213</v>
+        <v>655303</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1111,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>329</v>
+        <v>1801</v>
       </c>
       <c r="N4" s="7">
-        <v>211651</v>
+        <v>1200311</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1132,10 +1060,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>7613</v>
+        <v>23401</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1147,10 +1075,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>8133</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1162,10 +1090,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>7613</v>
+        <v>31534</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1183,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7">
-        <v>8613</v>
+        <v>63859</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1198,10 +1126,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>1520</v>
+        <v>11934</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1213,10 +1141,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N6" s="7">
-        <v>10133</v>
+        <v>75794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1234,10 +1162,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>726</v>
       </c>
       <c r="D7" s="7">
-        <v>98664</v>
+        <v>632269</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1249,10 +1177,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1264,10 +1192,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>357</v>
+        <v>1964</v>
       </c>
       <c r="N7" s="7">
-        <v>229397</v>
+        <v>1307639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1287,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>515</v>
+        <v>807</v>
       </c>
       <c r="D8" s="7">
-        <v>472636</v>
+        <v>1045973</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1302,10 +1230,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>957</v>
+        <v>1462</v>
       </c>
       <c r="I8" s="7">
-        <v>571871</v>
+        <v>925145</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1317,10 +1245,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>1472</v>
+        <v>2269</v>
       </c>
       <c r="N8" s="7">
-        <v>1044507</v>
+        <v>1971117</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1338,10 +1266,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7">
-        <v>16659</v>
+        <v>63146</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1353,34 +1281,34 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>8865</v>
+        <v>17203</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>87</v>
+      </c>
+      <c r="N9" s="7">
+        <v>80349</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>41</v>
-      </c>
-      <c r="N9" s="7">
-        <v>25523</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,49 +1317,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>60529</v>
+        <v>81535</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15758</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11819</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>122</v>
+      </c>
+      <c r="N10" s="7">
+        <v>97294</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>94</v>
-      </c>
-      <c r="N10" s="7">
-        <v>72348</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>962</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1190654</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1455,10 +1383,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1470,10 +1398,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N11" s="7">
-        <v>1142378</v>
+        <v>2148760</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1487,55 +1415,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>807</v>
+        <v>592</v>
       </c>
       <c r="D12" s="7">
-        <v>879751</v>
+        <v>621652</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>902447</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>1462</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1021670</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1591</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1524101</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>2269</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1901422</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,40 +1472,40 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>63339</v>
+        <v>42182</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>19482</v>
+        <v>18014</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>82821</v>
+        <v>60195</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1595,10 +1523,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>93775</v>
+        <v>39526</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1610,34 +1538,34 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>18322</v>
+        <v>11749</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>112097</v>
+        <v>51275</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,10 +1574,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>962</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1036865</v>
+        <v>703360</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1661,10 +1589,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>932210</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1676,10 +1604,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2478</v>
+        <v>1720</v>
       </c>
       <c r="N15" s="7">
-        <v>2096339</v>
+        <v>1635571</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1693,55 +1621,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>592</v>
+        <v>872</v>
       </c>
       <c r="D16" s="7">
-        <v>639474</v>
+        <v>821544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>999</v>
+        <v>1506</v>
       </c>
       <c r="I16" s="7">
-        <v>839970</v>
+        <v>1060557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>1591</v>
+        <v>2378</v>
       </c>
       <c r="N16" s="7">
-        <v>1479444</v>
+        <v>1882101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1678,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>43390</v>
+        <v>31663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>19873</v>
+        <v>18107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>63263</v>
+        <v>49770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +1729,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7">
-        <v>44519</v>
+        <v>71825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>13331</v>
+        <v>15566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="N18" s="7">
-        <v>57850</v>
+        <v>87391</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="7">
-        <v>727382</v>
+        <v>925033</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1867,10 +1795,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1045</v>
+        <v>1560</v>
       </c>
       <c r="I19" s="7">
-        <v>873174</v>
+        <v>1094229</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1882,10 +1810,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1720</v>
+        <v>2563</v>
       </c>
       <c r="N19" s="7">
-        <v>1600556</v>
+        <v>2019262</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1899,55 +1827,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>872</v>
+        <v>2876</v>
       </c>
       <c r="D20" s="7">
-        <v>849424</v>
+        <v>3034178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>1506</v>
+        <v>5163</v>
       </c>
       <c r="I20" s="7">
-        <v>1112163</v>
+        <v>3543453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>2378</v>
+        <v>8039</v>
       </c>
       <c r="N20" s="7">
-        <v>1961587</v>
+        <v>6577630</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +1884,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D21" s="7">
-        <v>33685</v>
+        <v>160392</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I21" s="7">
-        <v>20127</v>
+        <v>61456</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="N21" s="7">
-        <v>53812</v>
+        <v>221848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +1935,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
-        <v>80382</v>
+        <v>256747</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>17341</v>
+        <v>55007</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="M22" s="7">
-        <v>117</v>
+        <v>416</v>
       </c>
       <c r="N22" s="7">
-        <v>97723</v>
+        <v>311754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1003</v>
+        <v>3366</v>
       </c>
       <c r="D23" s="7">
-        <v>963492</v>
+        <v>3451317</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2073,10 +2001,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1560</v>
+        <v>5359</v>
       </c>
       <c r="I23" s="7">
-        <v>1149631</v>
+        <v>3659916</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2088,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2563</v>
+        <v>8725</v>
       </c>
       <c r="N23" s="7">
-        <v>2113122</v>
+        <v>7111232</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2104,222 +2032,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2876</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2923723</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="A24" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5163</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3674887</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8039</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6598612</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>165</v>
-      </c>
-      <c r="D25" s="7">
-        <v>164686</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="7">
-        <v>105</v>
-      </c>
-      <c r="I25" s="7">
-        <v>68346</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M25" s="7">
-        <v>270</v>
-      </c>
-      <c r="N25" s="7">
-        <v>233032</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>325</v>
-      </c>
-      <c r="D26" s="7">
-        <v>287817</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="7">
-        <v>91</v>
-      </c>
-      <c r="I26" s="7">
-        <v>62332</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M26" s="7">
-        <v>416</v>
-      </c>
-      <c r="N26" s="7">
-        <v>350150</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3376226</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3805566</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8725</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7181794</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>171</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
